--- a/excel/data202312.xlsx
+++ b/excel/data202312.xlsx
@@ -3164,7 +3164,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>46.00</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>11.00</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>25.00</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>161.00</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>45.00</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>292.00</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
         <v>9500</v>
       </c>
       <c r="H2" t="n">
-        <v>4435.62</v>
+        <v>5317.36</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5536,7 +5536,7 @@
         <v>1607.56</v>
       </c>
       <c r="H3" t="n">
-        <v>958.85</v>
+        <v>1108.05</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>44036.53</v>
       </c>
       <c r="H4" t="n">
-        <v>6039.48</v>
+        <v>6530.42</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>1486.83</v>
       </c>
       <c r="H5" t="n">
-        <v>166.22</v>
+        <v>191.05</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -5629,7 +5629,7 @@
         <v>210.65</v>
       </c>
       <c r="H6" t="n">
-        <v>80.16</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>71323.64999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>19661.43</v>
+        <v>20585.53</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>39836</v>
       </c>
       <c r="H8" t="n">
-        <v>76149.02</v>
+        <v>82773.94</v>
       </c>
       <c r="I8" t="n">
         <v>35</v>
@@ -5722,7 +5722,7 @@
         <v>197.81</v>
       </c>
       <c r="H9" t="n">
-        <v>90.95999999999999</v>
+        <v>100.04</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>700</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.98</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>27447.05</v>
       </c>
       <c r="H12" t="n">
-        <v>16802.92</v>
+        <v>18169.4</v>
       </c>
       <c r="I12" t="n">
         <v>18</v>
@@ -5846,7 +5846,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>18789.42</v>
+        <v>20526.27</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -5877,7 +5877,7 @@
         <v>23949.53</v>
       </c>
       <c r="H14" t="n">
-        <v>20225.85</v>
+        <v>22230.52</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
         <v>160994.45</v>
       </c>
       <c r="H15" t="n">
-        <v>234061.79</v>
+        <v>248625.26</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>3852.22</v>
       </c>
       <c r="H16" t="n">
-        <v>1380.15</v>
+        <v>1588.19</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -5970,7 +5970,7 @@
         <v>2126.5</v>
       </c>
       <c r="H17" t="n">
-        <v>145.65</v>
+        <v>307.71</v>
       </c>
       <c r="I17" t="n">
         <v>10</v>
@@ -6001,7 +6001,7 @@
         <v>408268.78</v>
       </c>
       <c r="H18" t="n">
-        <v>398987.5200000001</v>
+        <v>428156.35</v>
       </c>
       <c r="I18" t="n">
         <v>73</v>

--- a/excel/data202312.xlsx
+++ b/excel/data202312.xlsx
@@ -5505,7 +5505,7 @@
         <v>9500</v>
       </c>
       <c r="H2" t="n">
-        <v>5317.36</v>
+        <v>4865.75</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5536,7 +5536,7 @@
         <v>1607.56</v>
       </c>
       <c r="H3" t="n">
-        <v>1108.05</v>
+        <v>1013.94</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>44036.53</v>
       </c>
       <c r="H4" t="n">
-        <v>6530.42</v>
+        <v>5975.78</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>1486.83</v>
       </c>
       <c r="H5" t="n">
-        <v>191.05</v>
+        <v>174.82</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -5629,7 +5629,7 @@
         <v>210.65</v>
       </c>
       <c r="H6" t="n">
-        <v>85.84999999999999</v>
+        <v>78.56</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>71323.64999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>20585.53</v>
+        <v>18837.17</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>39836</v>
       </c>
       <c r="H8" t="n">
-        <v>82773.94</v>
+        <v>75743.83</v>
       </c>
       <c r="I8" t="n">
         <v>35</v>
@@ -5722,7 +5722,7 @@
         <v>197.81</v>
       </c>
       <c r="H9" t="n">
-        <v>100.04</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>700</v>
       </c>
       <c r="H10" t="n">
-        <v>7.78</v>
+        <v>7.12</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>8.98</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>27447.05</v>
       </c>
       <c r="H12" t="n">
-        <v>18169.4</v>
+        <v>16626.24</v>
       </c>
       <c r="I12" t="n">
         <v>18</v>
@@ -5846,7 +5846,7 @@
         <v>20000</v>
       </c>
       <c r="H13" t="n">
-        <v>20526.27</v>
+        <v>18782.94</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -5877,7 +5877,7 @@
         <v>23949.53</v>
       </c>
       <c r="H14" t="n">
-        <v>22230.52</v>
+        <v>20342.45</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
         <v>160994.45</v>
       </c>
       <c r="H15" t="n">
-        <v>248625.26</v>
+        <v>227509.14</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>3852.22</v>
       </c>
       <c r="H16" t="n">
-        <v>1588.19</v>
+        <v>1453.31</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -5970,7 +5970,7 @@
         <v>2126.5</v>
       </c>
       <c r="H17" t="n">
-        <v>307.71</v>
+        <v>281.57</v>
       </c>
       <c r="I17" t="n">
         <v>10</v>
@@ -6001,7 +6001,7 @@
         <v>408268.78</v>
       </c>
       <c r="H18" t="n">
-        <v>428156.35</v>
+        <v>391792.38</v>
       </c>
       <c r="I18" t="n">
         <v>73</v>

--- a/excel/data202312.xlsx
+++ b/excel/data202312.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>314318.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82000.00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>503324.21</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>283000.00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>135697.00</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>244183.87</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -717,12 +717,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>52748.56</t>
+          <t>53748.56</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80000.00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82640.00</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>240678.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>171000.00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>52323.34</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106400.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1100.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84000.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>11500.00</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -943,12 +943,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>175837.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>89592.12</t>
+          <t>88828.36</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1000.00</t>
         </is>
       </c>
     </row>
@@ -1049,6 +1049,83 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>数字普惠部</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>85738.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5498.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -1230,12 +1307,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1364,12 +1441,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22314.29</t>
+          <t>9314.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1431,12 +1508,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1498,27 +1575,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>33000.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1565,12 +1642,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1585,7 +1662,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48000.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1632,12 +1709,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>858.62</t>
+          <t>58.62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1652,7 +1729,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>800.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1699,12 +1776,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>308004.56</t>
+          <t>11107.56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1719,7 +1796,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>53897.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1766,12 +1843,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>41800.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1786,7 +1863,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>18800.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1833,12 +1910,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14306.53</t>
+          <t>6406.53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1853,7 +1930,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7900.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1900,12 +1977,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>31037.82</t>
+          <t>97.82</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1920,7 +1997,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15940.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1967,12 +2044,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88000.00</t>
+          <t>21000.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1987,7 +2064,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>40000.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2034,12 +2111,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>38500.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2054,7 +2131,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2101,12 +2178,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>63323.34</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2121,7 +2198,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>33323.34</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2168,12 +2245,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>123762.22</t>
+          <t>2262.22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2188,7 +2265,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2235,12 +2312,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>33500.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2255,7 +2332,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2302,12 +2379,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>62000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2838,27 +2915,27 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>1000.00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3094,22 +3171,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>707560.34</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>46858.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -3196,22 +3273,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>290360.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -3298,22 +3375,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3572.51</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3400,22 +3477,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>40464.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>63.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>683.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3502,22 +3579,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>197.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3604,22 +3681,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>232318.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>321.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8141.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3706,22 +3783,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>210.65</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3808,22 +3885,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>63.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>63412.27</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>301.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3910,22 +3987,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>34.20</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>101.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -4017,17 +4094,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>72809.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -4114,22 +4191,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>167.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1410938.90</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>578.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>56190.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -4267,10 +4344,10 @@
         <v>1034573</v>
       </c>
       <c r="F2" t="n">
-        <v>707560.34</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>511.03</v>
@@ -4296,10 +4373,10 @@
         <v>316700</v>
       </c>
       <c r="F3" t="n">
-        <v>290360</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1800</v>
@@ -4329,10 +4406,10 @@
         <v>1777</v>
       </c>
       <c r="F4" t="n">
-        <v>1453.99</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -4362,10 +4439,10 @@
         <v>14955</v>
       </c>
       <c r="F5" t="n">
-        <v>7447.79</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>5024.14</v>
@@ -4395,10 +4472,10 @@
         <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>97.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>97.81999999999999</v>
@@ -4428,10 +4505,10 @@
         <v>47000</v>
       </c>
       <c r="F7" t="n">
-        <v>71323.64999999999</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>4679.9</v>
@@ -4461,10 +4538,10 @@
         <v>364650</v>
       </c>
       <c r="F8" t="n">
-        <v>160994.45</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>69993.36</v>
@@ -4494,10 +4571,10 @@
         <v>660</v>
       </c>
       <c r="F9" t="n">
-        <v>210.65</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>8.16</v>
@@ -4527,10 +4604,10 @@
         <v>10600</v>
       </c>
       <c r="F10" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>8500</v>
@@ -4560,10 +4637,10 @@
         <v>5600</v>
       </c>
       <c r="F11" t="n">
-        <v>1607.56</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1503.41</v>
@@ -4593,10 +4670,10 @@
         <v>1000</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>1000</v>
@@ -4626,10 +4703,10 @@
         <v>21500</v>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>20000</v>
@@ -4659,10 +4736,10 @@
         <v>41800</v>
       </c>
       <c r="F14" t="n">
-        <v>23949.53</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>23949.53</v>
@@ -4692,10 +4769,10 @@
         <v>4500</v>
       </c>
       <c r="F15" t="n">
-        <v>3852.22</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>2262.22</v>
@@ -4725,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>34.2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1.82</v>
@@ -4754,10 +4831,10 @@
         <v>36000</v>
       </c>
       <c r="F17" t="n">
-        <v>72809</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -4787,10 +4864,10 @@
         <v>1901443</v>
       </c>
       <c r="F18" t="n">
-        <v>1372201.2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>139331.39</v>
@@ -4926,16 +5003,16 @@
         <v>4.79</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4960,16 +5037,16 @@
         <v>5.63</v>
       </c>
       <c r="G4" t="n">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>179917</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4994,16 +5071,16 @@
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1486.83</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5028,16 +5105,16 @@
         <v>6.3</v>
       </c>
       <c r="G6" t="n">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39526.4</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5062,16 +5139,16 @@
         <v>6.03</v>
       </c>
       <c r="G7" t="n">
-        <v>37421</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>43541.18</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>43724</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>37421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5096,16 +5173,16 @@
         <v>19.52</v>
       </c>
       <c r="G8" t="n">
-        <v>2410</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>13498.94</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4475</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5130,16 +5207,16 @@
         <v>9.73</v>
       </c>
       <c r="G9" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>21929.05</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5164,16 +5241,16 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2126.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5198,16 +5275,16 @@
         <v>18.4</v>
       </c>
       <c r="G11" t="n">
-        <v>6263</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>127364.3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8268</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5232,16 +5309,16 @@
         <v>6.5</v>
       </c>
       <c r="G12" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8375</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5266,16 +5343,16 @@
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2149</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5300,16 +5377,16 @@
         <v>10.62</v>
       </c>
       <c r="G14" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5518</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5402,16 +5479,16 @@
         <v>135.82</v>
       </c>
       <c r="G17" t="n">
-        <v>48312</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>446132.2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>59727</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>48030</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5502,10 +5579,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4865.75</v>
+        <v>806.85</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5533,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1607.56</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1013.94</v>
+        <v>136.53</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5552,7 +5629,7 @@
         <v>6406.53</v>
       </c>
       <c r="C4" t="n">
-        <v>-44705.3</v>
+        <v>-3524.35</v>
       </c>
       <c r="D4" t="n">
         <v>-3004.95</v>
@@ -5564,10 +5641,10 @@
         <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>44036.53</v>
+        <v>3529.63</v>
       </c>
       <c r="H4" t="n">
-        <v>5975.78</v>
+        <v>510.24</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5583,7 +5660,7 @@
         <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>-1220.83</v>
+        <v>-148.26</v>
       </c>
       <c r="D5" t="n">
         <v>-170.12</v>
@@ -5595,10 +5672,10 @@
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>1486.83</v>
+        <v>38.12</v>
       </c>
       <c r="H5" t="n">
-        <v>174.82</v>
+        <v>17.4</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -5614,7 +5691,7 @@
         <v>58.62</v>
       </c>
       <c r="C6" t="n">
-        <v>-152.67</v>
+        <v>-21</v>
       </c>
       <c r="D6" t="n">
         <v>-20.78</v>
@@ -5626,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>210.65</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>78.56</v>
+        <v>3.43</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5645,7 +5722,7 @@
         <v>9314.290000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>-101736.34</v>
+        <v>-11862.32</v>
       </c>
       <c r="D7" t="n">
         <v>-6481.38</v>
@@ -5657,10 +5734,10 @@
         <v>230</v>
       </c>
       <c r="G7" t="n">
-        <v>71323.64999999999</v>
+        <v>2548.04</v>
       </c>
       <c r="H7" t="n">
-        <v>18837.17</v>
+        <v>237.56</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5673,10 +5750,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74397.24000000001</v>
+        <v>73633.48</v>
       </c>
       <c r="C8" t="n">
-        <v>-47963.52</v>
+        <v>-4756.27</v>
       </c>
       <c r="D8" t="n">
         <v>-3579.82</v>
@@ -5688,10 +5765,10 @@
         <v>41</v>
       </c>
       <c r="G8" t="n">
-        <v>39836</v>
+        <v>5464.2</v>
       </c>
       <c r="H8" t="n">
-        <v>75743.83</v>
+        <v>6353.92</v>
       </c>
       <c r="I8" t="n">
         <v>35</v>
@@ -5707,7 +5784,7 @@
         <v>97.81999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5719,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>197.81</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>91.54000000000001</v>
+        <v>8.31</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5750,10 +5827,10 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>700</v>
+        <v>6953</v>
       </c>
       <c r="H10" t="n">
-        <v>7.12</v>
+        <v>238.49</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5781,10 +5858,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>8600</v>
       </c>
       <c r="H11" t="n">
-        <v>8.220000000000001</v>
+        <v>349.86</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -5800,7 +5877,7 @@
         <v>15194.88</v>
       </c>
       <c r="C12" t="n">
-        <v>-33108.36</v>
+        <v>-2099.92</v>
       </c>
       <c r="D12" t="n">
         <v>-2246.27</v>
@@ -5812,10 +5889,10 @@
         <v>125</v>
       </c>
       <c r="G12" t="n">
-        <v>27447.05</v>
+        <v>1944.7</v>
       </c>
       <c r="H12" t="n">
-        <v>16626.24</v>
+        <v>1264.83</v>
       </c>
       <c r="I12" t="n">
         <v>18</v>
@@ -5831,7 +5908,7 @@
         <v>20000</v>
       </c>
       <c r="C13" t="n">
-        <v>-14989.39</v>
+        <v>-2994.05</v>
       </c>
       <c r="D13" t="n">
         <v>-3996.94</v>
@@ -5843,10 +5920,10 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>20000</v>
+        <v>2953.93</v>
       </c>
       <c r="H13" t="n">
-        <v>18782.94</v>
+        <v>1688.89</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -5862,7 +5939,7 @@
         <v>23949.53</v>
       </c>
       <c r="C14" t="n">
-        <v>-14621.97</v>
+        <v>-2729.25</v>
       </c>
       <c r="D14" t="n">
         <v>-6851.32</v>
@@ -5874,10 +5951,10 @@
         <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>23949.53</v>
+        <v>3766.85</v>
       </c>
       <c r="H14" t="n">
-        <v>20342.45</v>
+        <v>2084.97</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5893,7 +5970,7 @@
         <v>155814.37</v>
       </c>
       <c r="C15" t="n">
-        <v>-335772.83</v>
+        <v>-13295.42</v>
       </c>
       <c r="D15" t="n">
         <v>-14453.09</v>
@@ -5905,10 +5982,10 @@
         <v>302</v>
       </c>
       <c r="G15" t="n">
-        <v>160994.45</v>
+        <v>10007.68</v>
       </c>
       <c r="H15" t="n">
-        <v>227509.14</v>
+        <v>12923.78</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -5924,7 +6001,7 @@
         <v>2262.22</v>
       </c>
       <c r="C16" t="n">
-        <v>-1590</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>-590</v>
@@ -5936,10 +6013,10 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>3852.22</v>
+        <v>737.78</v>
       </c>
       <c r="H16" t="n">
-        <v>1453.31</v>
+        <v>221.87</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -5967,10 +6044,10 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>2126.5</v>
+        <v>337</v>
       </c>
       <c r="H17" t="n">
-        <v>281.57</v>
+        <v>198.02</v>
       </c>
       <c r="I17" t="n">
         <v>10</v>
@@ -5983,10 +6060,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>322695.5599999999</v>
+        <v>321931.7999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-595961.2100000001</v>
+        <v>-41430.84</v>
       </c>
       <c r="D18" t="n">
         <v>-41394.67</v>
@@ -5998,10 +6075,10 @@
         <v>818</v>
       </c>
       <c r="G18" t="n">
-        <v>408268.78</v>
+        <v>46880.93</v>
       </c>
       <c r="H18" t="n">
-        <v>391792.38</v>
+        <v>27044.95</v>
       </c>
       <c r="I18" t="n">
         <v>73</v>

--- a/excel/data202312.xlsx
+++ b/excel/data202312.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,17 +620,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2980.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -697,17 +697,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17.21</t>
+          <t>2409.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -928,17 +928,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>162490.00</t>
+          <t>251895.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>665.00</t>
+          <t>2885.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1082,17 +1082,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>85738.62</t>
+          <t>92340.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5498.00</t>
+          <t>5691.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18.48</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1126,6 +1126,83 @@
         </is>
       </c>
       <c r="O9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>普惠业务二部</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -3037,7 +3114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3146,6 +3223,11 @@
           <t>三个月发生数</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>户均</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -3244,6 +3326,11 @@
           <t>46.00</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>7776.91</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3346,6 +3433,11 @@
           <t>11.00</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>10786.67</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3448,6 +3540,11 @@
           <t>2.00</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>691.19</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3550,6 +3647,11 @@
           <t>25.00</t>
         </is>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>218.44</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3652,6 +3754,11 @@
           <t>0.00</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3754,6 +3861,11 @@
           <t>161.00</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>569.41</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3856,6 +3968,11 @@
           <t>0.00</t>
         </is>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3958,6 +4075,11 @@
           <t>45.00</t>
         </is>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>595.09</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4060,6 +4182,11 @@
           <t>1.00</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4162,6 +4289,11 @@
           <t>1.00</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>33000.00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4262,6 +4394,11 @@
       <c r="T12" t="inlineStr">
         <is>
           <t>292.00</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>53766.66</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4330,6 +4467,16 @@
           <t>普惠户数</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>户均</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>平均利率</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -4355,6 +4502,12 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4384,6 +4537,12 @@
       <c r="I3" t="n">
         <v>2</v>
       </c>
+      <c r="J3" t="n">
+        <v>10786.67</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4417,6 +4576,12 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
+      <c r="J4" t="n">
+        <v>691.1900000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4450,6 +4615,12 @@
       <c r="I5" t="n">
         <v>23</v>
       </c>
+      <c r="J5" t="n">
+        <v>218.44</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4483,6 +4654,12 @@
       <c r="I6" t="n">
         <v>1</v>
       </c>
+      <c r="J6" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4516,6 +4693,12 @@
       <c r="I7" t="n">
         <v>22</v>
       </c>
+      <c r="J7" t="n">
+        <v>300.46</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4549,6 +4732,12 @@
       <c r="I8" t="n">
         <v>158</v>
       </c>
+      <c r="J8" t="n">
+        <v>601.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4582,6 +4771,12 @@
       <c r="I9" t="n">
         <v>1</v>
       </c>
+      <c r="J9" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4615,6 +4810,12 @@
       <c r="I10" t="n">
         <v>11</v>
       </c>
+      <c r="J10" t="n">
+        <v>791.67</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4648,6 +4849,12 @@
       <c r="I11" t="n">
         <v>9</v>
       </c>
+      <c r="J11" t="n">
+        <v>160.76</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4681,6 +4888,12 @@
       <c r="I12" t="n">
         <v>1</v>
       </c>
+      <c r="J12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4714,6 +4927,12 @@
       <c r="I13" t="n">
         <v>22</v>
       </c>
+      <c r="J13" t="n">
+        <v>909.09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4747,6 +4966,12 @@
       <c r="I14" t="n">
         <v>47</v>
       </c>
+      <c r="J14" t="n">
+        <v>509.56</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4780,6 +5005,12 @@
       <c r="I15" t="n">
         <v>6</v>
       </c>
+      <c r="J15" t="n">
+        <v>377.04</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4812,6 +5043,12 @@
       </c>
       <c r="I16" t="n">
         <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K16" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -4842,6 +5079,12 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="n">
+        <v>33000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4874,6 +5117,12 @@
       </c>
       <c r="I18" t="n">
         <v>305</v>
+      </c>
+      <c r="J18" t="n">
+        <v>49475.43</v>
+      </c>
+      <c r="K18" t="n">
+        <v>105.97</v>
       </c>
     </row>
   </sheetData>
@@ -4887,7 +5136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4946,27 +5195,42 @@
           <t>当年新开户数</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>个人户均</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>逾期金额</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>不良金额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>创业经营贷</t>
+          <t>房抵贷</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2158.72</v>
+        <v>700</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2855</v>
+        <v>700</v>
       </c>
       <c r="F2" t="n">
-        <v>8.300000000000001</v>
+        <v>4.79</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -4978,29 +5242,38 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>350</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>房抵贷</t>
+          <t>房抵贷-公司部</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>679</v>
       </c>
       <c r="C3" t="n">
-        <v>700</v>
+        <v>166570</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>703</v>
       </c>
       <c r="E3" t="n">
-        <v>700</v>
+        <v>166797</v>
       </c>
       <c r="F3" t="n">
-        <v>4.79</v>
+        <v>5.63</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5012,29 +5285,38 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>245.32</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1525</v>
+      </c>
+      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>房抵贷-公司部</t>
+          <t>瑞e惠-云度</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>166570</v>
+        <v>266</v>
       </c>
       <c r="D4" t="n">
-        <v>703</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>166797</v>
+        <v>413.85</v>
       </c>
       <c r="F4" t="n">
-        <v>5.63</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5046,29 +5328,38 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>瑞e惠-云度</t>
+          <t>瑞e惠-平安普惠</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>1958</v>
       </c>
       <c r="C5" t="n">
-        <v>266</v>
+        <v>74210.92999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>1958</v>
       </c>
       <c r="E5" t="n">
-        <v>413.85</v>
+        <v>94004.89999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5080,29 +5371,38 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1736.68</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>瑞e惠-平安普惠</t>
+          <t>瑞e惠-拍拍贷</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1958</v>
+        <v>18388</v>
       </c>
       <c r="C6" t="n">
-        <v>74210.92999999999</v>
+        <v>13485.39</v>
       </c>
       <c r="D6" t="n">
-        <v>1958</v>
+        <v>20132</v>
       </c>
       <c r="E6" t="n">
-        <v>94004.89999999999</v>
+        <v>22266.84</v>
       </c>
       <c r="F6" t="n">
-        <v>6.3</v>
+        <v>6.03</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5114,29 +5414,38 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>瑞e惠-拍拍贷</t>
+          <t>瑞e惠-携程生意人贷</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18388</v>
+        <v>2147</v>
       </c>
       <c r="C7" t="n">
-        <v>13485.39</v>
+        <v>10460.72</v>
       </c>
       <c r="D7" t="n">
-        <v>20132</v>
+        <v>3626</v>
       </c>
       <c r="E7" t="n">
-        <v>22266.84</v>
+        <v>11045.66</v>
       </c>
       <c r="F7" t="n">
-        <v>6.03</v>
+        <v>19.52</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5148,29 +5457,38 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>瑞e惠-携程生意人贷</t>
+          <t>瑞e惠-磁金融</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2147</v>
+        <v>179</v>
       </c>
       <c r="C8" t="n">
-        <v>10460.72</v>
+        <v>9676.879999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>3626</v>
+        <v>448</v>
       </c>
       <c r="E8" t="n">
-        <v>11045.66</v>
+        <v>9676.879999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>19.52</v>
+        <v>9.73</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5182,29 +5500,38 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>瑞e惠-磁金融</t>
+          <t>瑞e惠-锱云科技</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>9676.879999999999</v>
+        <v>2126.5</v>
       </c>
       <c r="D9" t="n">
-        <v>448</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>9676.879999999999</v>
+        <v>2126.5</v>
       </c>
       <c r="F9" t="n">
-        <v>9.73</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5216,29 +5543,38 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>瑞e惠-锱云科技</t>
+          <t>瑞商贷</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>5498</v>
       </c>
       <c r="C10" t="n">
-        <v>2126.5</v>
+        <v>85738.62</v>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>6815</v>
       </c>
       <c r="E10" t="n">
-        <v>2126.5</v>
+        <v>107063.1</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>18.4</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5251,28 +5587,37 @@
       </c>
       <c r="J10" t="n">
         <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3809.28</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1059.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>瑞商贷</t>
+          <t>瑞商贷-怡亚通</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5498</v>
+        <v>109</v>
       </c>
       <c r="C11" t="n">
-        <v>85738.62</v>
+        <v>5470</v>
       </c>
       <c r="D11" t="n">
-        <v>6815</v>
+        <v>167</v>
       </c>
       <c r="E11" t="n">
-        <v>107063.1</v>
+        <v>5470</v>
       </c>
       <c r="F11" t="n">
-        <v>18.4</v>
+        <v>6.5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5284,29 +5629,38 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>50.18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>瑞商贷-怡亚通</t>
+          <t>瑞商贷-重庆金微</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C12" t="n">
-        <v>5470</v>
+        <v>1132.05</v>
       </c>
       <c r="D12" t="n">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="E12" t="n">
-        <v>5470</v>
+        <v>1812</v>
       </c>
       <c r="F12" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5318,29 +5672,38 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="M12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>瑞商贷-重庆金微</t>
+          <t>磁金融非循环</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="n">
-        <v>1132.05</v>
+        <v>5518</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E13" t="n">
-        <v>1812</v>
+        <v>5518</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>10.62</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5352,29 +5715,38 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>磁金融非循环</t>
+          <t>跨境电商-新连连</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5518</v>
+        <v>17.21</v>
       </c>
       <c r="D14" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>5518</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>10.62</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5387,28 +5759,37 @@
       </c>
       <c r="J14" t="n">
         <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="L14" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>跨境电商-新连连</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>29172</v>
       </c>
       <c r="C15" t="n">
-        <v>17.21</v>
+        <v>375372.3</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>34069</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>426924.73</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>118.52</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5422,73 +5803,14 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>车商贷</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>137.64</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>195.77</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>29179</v>
-      </c>
-      <c r="C17" t="n">
-        <v>377668.66</v>
-      </c>
-      <c r="D17" t="n">
-        <v>34076</v>
-      </c>
-      <c r="E17" t="n">
-        <v>429975.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>135.82</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
+      <c r="K15" t="n">
+        <v>944.88</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7098.23</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1076.59</v>
       </c>
     </row>
   </sheetData>

--- a/excel/data202312.xlsx
+++ b/excel/data202312.xlsx
@@ -523,17 +523,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>247128.66</t>
+          <t>165128.66</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>302.00</t>
+          <t>290.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>232318.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -600,22 +600,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>429863.17</t>
+          <t>141226.17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>214687.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2980.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>214093.88</t>
+          <t>134093.88</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>109.00</t>
+          <t>103.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>164183.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3613.33</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>225585.57</t>
+          <t>53960.57</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>69678.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>95500.00</t>
+          <t>11500.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>22400.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1100.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2000.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>242810.45</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>137888.30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3253,22 +3253,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>707560.34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>46858.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -3360,22 +3360,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>290360.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>47.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -3467,22 +3467,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3572.51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3574,22 +3574,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>40464.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>63.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>683.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3681,22 +3681,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>197.81</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3788,22 +3788,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>232318.10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>321.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8141.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3895,22 +3895,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>210.65</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -4002,22 +4002,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>63.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>63412.27</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>109.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>301.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -4109,22 +4109,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>34.20</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>101.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -4221,17 +4221,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>72809.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -4323,22 +4323,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>167.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1410938.90</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>578.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>56190.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -4413,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4479,303 +4479,315 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>产能预售业务</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>上海中钢供应链有限公司</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>760850.34</v>
+        <v>1382.39</v>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1034573</v>
+        <v>1777</v>
       </c>
       <c r="F2" t="n">
+        <v>1453.99</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>511.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>691.1900000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>一般贷款</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>现货业务</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>上海中钢供应链有限公司</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>194160</v>
+        <v>5024.14</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>316700</v>
+        <v>14955</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7447.79</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>1800</v>
+        <v>5024.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>10786.67</v>
+        <v>218.44</v>
       </c>
       <c r="K3" t="n">
-        <v>5.51</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>产能预售业务</t>
+          <t>瑞e惠B端</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海中钢供应链有限公司</t>
+          <t>恒洁卫浴集团有限公司</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1382.39</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1777</v>
+        <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>691.1900000000001</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>现货业务</t>
+          <t>瑞e订</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海中钢供应链有限公司</t>
+          <t>上海大展懿杰建设科技有限公司</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5024.14</v>
+        <v>9314.290000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>14955</v>
+        <v>47000</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>71323.64999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>5024.14</v>
+        <v>4679.9</v>
       </c>
       <c r="I5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>218.44</v>
+        <v>300.46</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>瑞e惠B端</t>
+          <t>瑞e订</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>恒洁卫浴集团有限公司</t>
+          <t>钰翔环保供应链管理（上海）有限公司</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97.81999999999999</v>
+        <v>155814.37</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>364650</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>160994.45</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="H6" t="n">
-        <v>97.81999999999999</v>
+        <v>69993.36</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="J6" t="n">
-        <v>97.81999999999999</v>
+        <v>601.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>瑞e订</t>
+          <t>瑞e险</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>上海大展懿杰建设科技有限公司</t>
+          <t>熠瑞合（上海）供应链管理有限公司</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9314.290000000001</v>
+        <v>58.62</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>47000</v>
+        <v>660</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>210.65</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>4679.9</v>
+        <v>8.16</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>300.46</v>
+        <v>29.31</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>瑞e订</t>
+          <t>线上供应链-瑞e保</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>钰翔环保供应链管理（上海）有限公司</t>
+          <t>上海中振交通装备有限公司</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>155814.37</v>
+        <v>9500</v>
       </c>
       <c r="D8" t="n">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>364650</v>
+        <v>10600</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>69993.36</v>
+        <v>8500</v>
       </c>
       <c r="I8" t="n">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>601.6</v>
+        <v>791.67</v>
       </c>
       <c r="K8" t="n">
-        <v>6.51</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>瑞e险</t>
+          <t>线上供应链-瑞e保</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>熠瑞合（上海）供应链管理有限公司</t>
+          <t>上海电气研砼建筑科技集团有限公司</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>58.62</v>
+        <v>1607.56</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>660</v>
+        <v>5600</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1607.56</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>8.16</v>
+        <v>1503.41</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>29.31</v>
+        <v>160.76</v>
       </c>
       <c r="K9" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -4786,35 +4798,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>上海中振交通装备有限公司</t>
+          <t>无锡红豆居家服饰有限公司</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9500</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>10600</v>
+        <v>1000</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8500</v>
+        <v>1000</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>791.67</v>
+        <v>1000</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="11">
@@ -4825,35 +4837,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>上海电气研砼建筑科技集团有限公司</t>
+          <t>江西联创光电科技股份有限公司</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1607.56</v>
+        <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>5600</v>
+        <v>21500</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
-        <v>1503.41</v>
+        <v>20000</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>160.76</v>
+        <v>909.09</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="12">
@@ -4864,35 +4876,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>无锡红豆居家服饰有限公司</t>
+          <t>远东智慧能源股份有限公司</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1000</v>
+        <v>23949.53</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
-        <v>1000</v>
+        <v>41800</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>23949.53</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H12" t="n">
-        <v>1000</v>
+        <v>23949.53</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J12" t="n">
-        <v>1000</v>
+        <v>509.56</v>
       </c>
       <c r="K12" t="n">
-        <v>5.15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -4903,226 +4915,113 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>江西联创光电科技股份有限公司</t>
+          <t>银江技术股份有限公司</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20000</v>
+        <v>2262.22</v>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>21500</v>
+        <v>4500</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3852.22</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>20000</v>
+        <v>2262.22</v>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>909.09</v>
+        <v>377.04</v>
       </c>
       <c r="K13" t="n">
-        <v>5.15</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>线上供应链-瑞e保</t>
+          <t>线上第三方-先用后付</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>远东智慧能源股份有限公司</t>
+          <t>上海锦江旅游控股有限公司</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23949.53</v>
+        <v>1.82</v>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>41800</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>23949.53</v>
+        <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>509.56</v>
+        <v>1.82</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>线上供应链-瑞e保</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>银江技术股份有限公司</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2262.22</v>
+        <v>230012.76</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>417</v>
       </c>
       <c r="E15" t="n">
-        <v>4500</v>
+        <v>514170</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>301471.86</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="H15" t="n">
-        <v>2262.22</v>
+        <v>137020.36</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="J15" t="n">
-        <v>377.04</v>
+        <v>5688.76</v>
       </c>
       <c r="K15" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>线上第三方-先用后付</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>上海锦江旅游控股有限公司</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>30</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="K16" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>线下卖方产品</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>33000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>36000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>33000</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1218023.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>498</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1901443</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>139331.39</v>
-      </c>
-      <c r="I18" t="n">
-        <v>305</v>
-      </c>
-      <c r="J18" t="n">
-        <v>49475.43</v>
-      </c>
-      <c r="K18" t="n">
-        <v>105.97</v>
+        <v>92.96000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5233,16 +5132,16 @@
         <v>4.79</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>350</v>
@@ -5276,16 +5175,16 @@
         <v>5.63</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>179917</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="K3" t="n">
         <v>245.32</v>
@@ -5319,16 +5218,16 @@
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1486.83</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
         <v>20.46</v>
@@ -5362,16 +5261,16 @@
         <v>6.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>39526.4</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="K5" t="n">
         <v>37.9</v>
@@ -5405,16 +5304,16 @@
         <v>6.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>37421</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>43541.18</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43724</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>37421</v>
       </c>
       <c r="K6" t="n">
         <v>0.73</v>
@@ -5448,16 +5347,16 @@
         <v>19.52</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2410</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13498.94</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4475</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2410</v>
       </c>
       <c r="K7" t="n">
         <v>4.87</v>
@@ -5491,16 +5390,16 @@
         <v>9.73</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>21929.05</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="K8" t="n">
         <v>54.06</v>
@@ -5534,16 +5433,16 @@
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2126.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K9" t="n">
         <v>68.59999999999999</v>
@@ -5577,16 +5476,16 @@
         <v>18.4</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6263</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>127364.3</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>8268</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6169</v>
       </c>
       <c r="K10" t="n">
         <v>15.59</v>
@@ -5620,16 +5519,16 @@
         <v>6.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8375</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="K11" t="n">
         <v>50.18</v>
@@ -5663,16 +5562,16 @@
         <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2149</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>13.48</v>
@@ -5706,16 +5605,16 @@
         <v>10.62</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5518</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K13" t="n">
         <v>66.48</v>
@@ -5792,16 +5691,16 @@
         <v>118.52</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>48312</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>446132.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>59727</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>48030</v>
       </c>
       <c r="K15" t="n">
         <v>944.88</v>
@@ -5901,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="H2" t="n">
-        <v>806.85</v>
+        <v>5672.6</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5932,10 +5831,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1607.56</v>
       </c>
       <c r="H3" t="n">
-        <v>136.53</v>
+        <v>1150.48</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5951,7 +5850,7 @@
         <v>6406.53</v>
       </c>
       <c r="C4" t="n">
-        <v>-3524.35</v>
+        <v>-48229.65</v>
       </c>
       <c r="D4" t="n">
         <v>-3004.95</v>
@@ -5963,10 +5862,10 @@
         <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>3529.63</v>
+        <v>47566.16</v>
       </c>
       <c r="H4" t="n">
-        <v>510.24</v>
+        <v>6486.02</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5982,7 +5881,7 @@
         <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>-148.26</v>
+        <v>-1369.08</v>
       </c>
       <c r="D5" t="n">
         <v>-170.12</v>
@@ -5994,10 +5893,10 @@
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>38.12</v>
+        <v>1524.95</v>
       </c>
       <c r="H5" t="n">
-        <v>17.4</v>
+        <v>192.22</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -6013,7 +5912,7 @@
         <v>58.62</v>
       </c>
       <c r="C6" t="n">
-        <v>-21</v>
+        <v>-173.67</v>
       </c>
       <c r="D6" t="n">
         <v>-20.78</v>
@@ -6025,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>210.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.43</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6044,7 +5943,7 @@
         <v>9314.290000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>-11862.32</v>
+        <v>-113598.66</v>
       </c>
       <c r="D7" t="n">
         <v>-6481.38</v>
@@ -6056,10 +5955,10 @@
         <v>230</v>
       </c>
       <c r="G7" t="n">
-        <v>2548.04</v>
+        <v>73871.69</v>
       </c>
       <c r="H7" t="n">
-        <v>237.56</v>
+        <v>19074.73</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -6075,7 +5974,7 @@
         <v>73633.48</v>
       </c>
       <c r="C8" t="n">
-        <v>-4756.27</v>
+        <v>-52719.79</v>
       </c>
       <c r="D8" t="n">
         <v>-3579.82</v>
@@ -6087,10 +5986,10 @@
         <v>41</v>
       </c>
       <c r="G8" t="n">
-        <v>5464.2</v>
+        <v>45300.2</v>
       </c>
       <c r="H8" t="n">
-        <v>6353.92</v>
+        <v>81333.99000000001</v>
       </c>
       <c r="I8" t="n">
         <v>35</v>
@@ -6106,7 +6005,7 @@
         <v>97.81999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -6118,10 +6017,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>197.81</v>
       </c>
       <c r="H9" t="n">
-        <v>8.31</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6149,10 +6048,10 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>6953</v>
+        <v>7653</v>
       </c>
       <c r="H10" t="n">
-        <v>238.49</v>
+        <v>245.61</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -6180,10 +6079,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>8600</v>
+        <v>9600</v>
       </c>
       <c r="H11" t="n">
-        <v>349.86</v>
+        <v>358.08</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6199,7 +6098,7 @@
         <v>15194.88</v>
       </c>
       <c r="C12" t="n">
-        <v>-2099.92</v>
+        <v>-35208.28</v>
       </c>
       <c r="D12" t="n">
         <v>-2246.27</v>
@@ -6211,10 +6110,10 @@
         <v>125</v>
       </c>
       <c r="G12" t="n">
-        <v>1944.7</v>
+        <v>29391.75</v>
       </c>
       <c r="H12" t="n">
-        <v>1264.83</v>
+        <v>17891.07</v>
       </c>
       <c r="I12" t="n">
         <v>18</v>
@@ -6230,7 +6129,7 @@
         <v>20000</v>
       </c>
       <c r="C13" t="n">
-        <v>-2994.05</v>
+        <v>-17983.44</v>
       </c>
       <c r="D13" t="n">
         <v>-3996.94</v>
@@ -6242,10 +6141,10 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>2953.93</v>
+        <v>22953.93</v>
       </c>
       <c r="H13" t="n">
-        <v>1688.89</v>
+        <v>20471.83</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -6261,7 +6160,7 @@
         <v>23949.53</v>
       </c>
       <c r="C14" t="n">
-        <v>-2729.25</v>
+        <v>-17351.22</v>
       </c>
       <c r="D14" t="n">
         <v>-6851.32</v>
@@ -6273,10 +6172,10 @@
         <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>3766.85</v>
+        <v>27716.38</v>
       </c>
       <c r="H14" t="n">
-        <v>2084.97</v>
+        <v>22427.43</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -6292,7 +6191,7 @@
         <v>155814.37</v>
       </c>
       <c r="C15" t="n">
-        <v>-13295.42</v>
+        <v>-349068.25</v>
       </c>
       <c r="D15" t="n">
         <v>-14453.09</v>
@@ -6304,10 +6203,10 @@
         <v>302</v>
       </c>
       <c r="G15" t="n">
-        <v>10007.68</v>
+        <v>171002.13</v>
       </c>
       <c r="H15" t="n">
-        <v>12923.78</v>
+        <v>240432.92</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -6323,7 +6222,7 @@
         <v>2262.22</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1590</v>
       </c>
       <c r="D16" t="n">
         <v>-590</v>
@@ -6335,10 +6234,10 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>737.78</v>
+        <v>4590</v>
       </c>
       <c r="H16" t="n">
-        <v>221.87</v>
+        <v>1675.17</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -6366,10 +6265,10 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>337</v>
+        <v>2463.5</v>
       </c>
       <c r="H17" t="n">
-        <v>198.02</v>
+        <v>479.6</v>
       </c>
       <c r="I17" t="n">
         <v>10</v>
@@ -6385,7 +6284,7 @@
         <v>321931.7999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-41430.84</v>
+        <v>-637392.04</v>
       </c>
       <c r="D18" t="n">
         <v>-41394.67</v>
@@ -6397,10 +6296,10 @@
         <v>818</v>
       </c>
       <c r="G18" t="n">
-        <v>46880.93</v>
+        <v>455149.71</v>
       </c>
       <c r="H18" t="n">
-        <v>27044.95</v>
+        <v>418073.59</v>
       </c>
       <c r="I18" t="n">
         <v>73</v>
